--- a/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-Lecciones-Aprendidas.xlsx
+++ b/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-Lecciones-Aprendidas.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="214">
   <si>
     <t>PP</t>
   </si>
@@ -448,9 +448,6 @@
     <t>LC_027</t>
   </si>
   <si>
-    <t>proyectoCar</t>
-  </si>
-  <si>
     <t>EV_0001</t>
   </si>
   <si>
@@ -466,12 +463,6 @@
     <t>Revisar y validar el grado de impacto del riesgo al ser asignado.</t>
   </si>
   <si>
-    <t>IRJ</t>
-  </si>
-  <si>
-    <t>JAGC</t>
-  </si>
-  <si>
     <t>Asignación del marco de tiempo adecuado para el riesgo</t>
   </si>
   <si>
@@ -511,9 +502,6 @@
     <t>Realizar un diseño adecuado del organigrama.</t>
   </si>
   <si>
-    <t>ENM</t>
-  </si>
-  <si>
     <t>Las actividades deben ser asignados a sólo un responsable que ejecute un rol.</t>
   </si>
   <si>
@@ -556,9 +544,6 @@
     <t>campturar la informacion correspondiente a los campos con que cuenta</t>
   </si>
   <si>
-    <t>HASR</t>
-  </si>
-  <si>
     <t>cuenta con la estructura correspondienta a acta de inicio</t>
   </si>
   <si>
@@ -605,6 +590,341 @@
   </si>
   <si>
     <t>Nombre de Auditor</t>
+  </si>
+  <si>
+    <t>REQ</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Definir los requerimientos de acuerdo a las especificaciones del cliente.</t>
+  </si>
+  <si>
+    <t>Mala interpretación de requerimientos.</t>
+  </si>
+  <si>
+    <t>Declarar  un tiempo específico solo para formular cada requerimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrollar WBS</t>
+  </si>
+  <si>
+    <t>Clasificar cada una de las etapas del WBS, en fechas aptas para que este pueda ser terminado sin ningún percance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No adaptar una fecha de acuerdo al tiempo establecido para el proyecto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llevar un control de fechas para establecer el tiempo necesaririo para cada actividad a realizar </t>
+  </si>
+  <si>
+    <t>Identificar Lecciones aprendidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir claramente cada una de las lecciones ya aprendidas y no volver a cometer errores </t>
+  </si>
+  <si>
+    <t>Mala integración de cada una  de las diferentes lecciones aprendidas.</t>
+  </si>
+  <si>
+    <t>Mantener estructurada cada una de las lecciones para saber que estas ya fueron realizadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir Matriz de Responsabilidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir al personal  cada responsabilidad que tiene dentro de la empresa  </t>
+  </si>
+  <si>
+    <t>El personal tenga definido una responsabilidad y no tenga la capcidad para realizarla.</t>
+  </si>
+  <si>
+    <t>Cada persona integrada en el proyecto contega el documento de matriz de responsabilidades para saber cual sera su responsabilidad y sea capacitado para ella si por alguna razon no se tiene el conocimiento.</t>
+  </si>
+  <si>
+    <t>Desarrollar Matriz de comunicación</t>
+  </si>
+  <si>
+    <t>Definir correctamente quien tenga cada documento a realizar y quien sera responsable de este.</t>
+  </si>
+  <si>
+    <t>Mala organización</t>
+  </si>
+  <si>
+    <t>Conocer quien sera el reponsable de cada documento y a quien se lo debe entregar  ya sea electronico o en fisico.</t>
+  </si>
+  <si>
+    <t>Analizar WBS</t>
+  </si>
+  <si>
+    <t>Especificar cada una de las etapas , que se contenga bien definido lo que  se realiza en cada una de las dierentes etapas.</t>
+  </si>
+  <si>
+    <t>Mala definición de cada actividad dentro de una etapa no establecida.</t>
+  </si>
+  <si>
+    <t>Definir claramente cada actividad a realizar en cada etapa.</t>
+  </si>
+  <si>
+    <t>Implementar SRS</t>
+  </si>
+  <si>
+    <t>Implementar los requerimientos de acuerdo a lo establecido con el cliente.</t>
+  </si>
+  <si>
+    <t>No realizar lo establecido de los requerimientos del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tener un control de cada requerimiento que el cliente necesita dentro del proyecto
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir ciclo de vida </t>
+  </si>
+  <si>
+    <t>Definir un ciclo de vida  apto para el proyecto a realizar</t>
+  </si>
+  <si>
+    <t>Mala estructura del proyecto en conforme el tiempo y las actividades que se iran realizando.</t>
+  </si>
+  <si>
+    <t>Investigar cada ciclo de vida y verificar que el que se eligio es el mas adecuado para el proyecto.</t>
+  </si>
+  <si>
+    <t>Identificar las no conformidades</t>
+  </si>
+  <si>
+    <t>Identificar las no conformidades de acuerdo a lo establecido en el proyecto</t>
+  </si>
+  <si>
+    <t>No mantener un orden.</t>
+  </si>
+  <si>
+    <t>Investigar cada una de las inconformidades para llevar un orden y control.</t>
+  </si>
+  <si>
+    <t>EV_0002</t>
+  </si>
+  <si>
+    <t>EV_0003</t>
+  </si>
+  <si>
+    <t>EV_0004</t>
+  </si>
+  <si>
+    <t>EV_0005</t>
+  </si>
+  <si>
+    <t>EV_0006</t>
+  </si>
+  <si>
+    <t>EV_0007</t>
+  </si>
+  <si>
+    <t>EV_0008</t>
+  </si>
+  <si>
+    <t>EV_0009</t>
+  </si>
+  <si>
+    <t>EV_0010</t>
+  </si>
+  <si>
+    <t>EV_0011</t>
+  </si>
+  <si>
+    <t>EV_0012</t>
+  </si>
+  <si>
+    <t>EV_0013</t>
+  </si>
+  <si>
+    <t>EV_0014</t>
+  </si>
+  <si>
+    <t>EV_0015</t>
+  </si>
+  <si>
+    <t>EV_0016</t>
+  </si>
+  <si>
+    <t>EV_0017</t>
+  </si>
+  <si>
+    <t>EV_0018</t>
+  </si>
+  <si>
+    <t>EV_0019</t>
+  </si>
+  <si>
+    <t>EV_0020</t>
+  </si>
+  <si>
+    <t>EV_0021</t>
+  </si>
+  <si>
+    <t>EV_0022</t>
+  </si>
+  <si>
+    <t>EV_0023</t>
+  </si>
+  <si>
+    <t>EV_0024</t>
+  </si>
+  <si>
+    <t>EV_0025</t>
+  </si>
+  <si>
+    <t>EV_0026</t>
+  </si>
+  <si>
+    <t>EV_0027</t>
+  </si>
+  <si>
+    <t>LC_028</t>
+  </si>
+  <si>
+    <t>LC_029</t>
+  </si>
+  <si>
+    <t>LC_030</t>
+  </si>
+  <si>
+    <t>LC_031</t>
+  </si>
+  <si>
+    <t>LC_032</t>
+  </si>
+  <si>
+    <t>LC_033</t>
+  </si>
+  <si>
+    <t>LC_034</t>
+  </si>
+  <si>
+    <t>LC_035</t>
+  </si>
+  <si>
+    <t>LC_036</t>
+  </si>
+  <si>
+    <t>LC_037</t>
+  </si>
+  <si>
+    <t>LC_038</t>
+  </si>
+  <si>
+    <t>LC_039</t>
+  </si>
+  <si>
+    <t>LC_040</t>
+  </si>
+  <si>
+    <t>LC_041</t>
+  </si>
+  <si>
+    <t>LC_042</t>
+  </si>
+  <si>
+    <t>LC_043</t>
+  </si>
+  <si>
+    <t>LC_044</t>
+  </si>
+  <si>
+    <t>LC_045</t>
+  </si>
+  <si>
+    <t>LC_046</t>
+  </si>
+  <si>
+    <t>LC_047</t>
+  </si>
+  <si>
+    <t>LC_048</t>
+  </si>
+  <si>
+    <t>LC_049</t>
+  </si>
+  <si>
+    <t>LC_050</t>
+  </si>
+  <si>
+    <t>EV_0028</t>
+  </si>
+  <si>
+    <t>EV_0029</t>
+  </si>
+  <si>
+    <t>EV_0030</t>
+  </si>
+  <si>
+    <t>EV_0031</t>
+  </si>
+  <si>
+    <t>EV_0032</t>
+  </si>
+  <si>
+    <t>EV_0033</t>
+  </si>
+  <si>
+    <t>EV_0034</t>
+  </si>
+  <si>
+    <t>EV_0035</t>
+  </si>
+  <si>
+    <t>EV_0036</t>
+  </si>
+  <si>
+    <t>EV_0037</t>
+  </si>
+  <si>
+    <t>EV_0038</t>
+  </si>
+  <si>
+    <t>EV_0039</t>
+  </si>
+  <si>
+    <t>EV_0040</t>
+  </si>
+  <si>
+    <t>EV_0041</t>
+  </si>
+  <si>
+    <t>EV_0042</t>
+  </si>
+  <si>
+    <t>EV_0043</t>
+  </si>
+  <si>
+    <t>EV_0044</t>
+  </si>
+  <si>
+    <t>EV_0045</t>
+  </si>
+  <si>
+    <t>EV_0046</t>
+  </si>
+  <si>
+    <t>EV_0047</t>
+  </si>
+  <si>
+    <t>EV_0048</t>
+  </si>
+  <si>
+    <t>EV_0049</t>
+  </si>
+  <si>
+    <t>EV_0050</t>
+  </si>
+  <si>
+    <t>Ana Laura Acevedo zarraga</t>
+  </si>
+  <si>
+    <t>Sergio Alan Orrala Silva</t>
   </si>
 </sst>
 </file>
@@ -677,7 +997,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +1007,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,9 +1220,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -955,6 +1302,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -982,17 +1338,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,27 +1734,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1390,17 +1764,17 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5">
@@ -1410,17 +1784,17 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1430,7 +1804,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
@@ -1444,42 +1818,42 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>42196</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
@@ -1490,42 +1864,42 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>42196</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
@@ -1536,52 +1910,52 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="36"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="5">
         <v>42196</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1617,45 +1991,45 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>42196</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1663,55 +2037,55 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>42196</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1721,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,714 +2118,1234 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="34"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="D4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="42" t="s">
+      <c r="E4" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="43"/>
-    </row>
-    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="H4" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="I4" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="L4" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="46" t="s">
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="E15" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="46" t="s">
+      <c r="H15" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="I15" s="32" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="J15" s="8"/>
+      <c r="K15" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="E16" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="E17" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E18" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="E19" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="E20" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="E22" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="E23" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="B24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="B25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="B26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="B27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="B28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="B29" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="B31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="L37" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="L40" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="L44" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L46" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L49" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="L50" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-Lecciones-Aprendidas.xlsx
+++ b/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-Lecciones-Aprendidas.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="257">
   <si>
     <t>PP</t>
   </si>
@@ -925,13 +925,142 @@
   </si>
   <si>
     <t>Sergio Alan Orrala Silva</t>
+  </si>
+  <si>
+    <t>REQM</t>
+  </si>
+  <si>
+    <t>Codificación</t>
+  </si>
+  <si>
+    <t>Agregar comentarios sobre el codiogo del sitio web</t>
+  </si>
+  <si>
+    <t>Documentación inadecuada sobre el código del sitio web</t>
+  </si>
+  <si>
+    <t>Agregar comentarios sobre el titulo de los distintos apartados de la sitio web en el código</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Plan de CM</t>
+  </si>
+  <si>
+    <t>Definición correcta de la configuración de los archivos administrativos del proyecto</t>
+  </si>
+  <si>
+    <t>Desconocimiento de la definición de configuración de los archivos administrativos del proyecto</t>
+  </si>
+  <si>
+    <t>Publicar y dar a conocer la definición de configuración de los archivos administrativos del proyecto</t>
+  </si>
+  <si>
+    <t>Correcta y adecuada definición del proceso de control de cambios de los documentos del desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Mala definición del proceso de control de cambios de los documentos del desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Definir clara y sencillamente cada uno de los pasos del proceso de control de cambios de los documentos del desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Diagrama de Gantt (WBS)</t>
+  </si>
+  <si>
+    <t>Fases de desarrollo del proyecto de acuerdo al ciclo de vida seleccionado</t>
+  </si>
+  <si>
+    <t>Omitir fases de desarrollo del proyecto de acuerdo al ciclo de vida seleccionado</t>
+  </si>
+  <si>
+    <t>Desarrollar fases de desarrollo del proyecto de acuerdo al ciclo de vida seleccionado</t>
+  </si>
+  <si>
+    <t>Planeación</t>
+  </si>
+  <si>
+    <t>Desarrollo de una adecuada planeación para el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>No realizar una adecuada planeación para el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Realizar una planeación realista que permita cumplir con los tiempos, costos y alcances del proyecto</t>
+  </si>
+  <si>
+    <t>Plan de Alcance</t>
+  </si>
+  <si>
+    <t>Correcta definición de los criterios de aceptación de cada alcance del proyecto</t>
+  </si>
+  <si>
+    <t>Mala definición de criterios de aceptación de cada uno de los alcances del proyecto</t>
+  </si>
+  <si>
+    <t>Realizar una descripción clara y conscisa de cada criterio de aceptación de los alcances del proyecto</t>
+  </si>
+  <si>
+    <t>Especificación de requerimientos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t>Correcta definición de requerimientos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t>Inadecuada definición de requerimientos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t>Definir cada uno de los requerimientos funcionales y no funcionales de forma concreta, clara y consisa</t>
+  </si>
+  <si>
+    <t>Definicion de estrategia de recoleccion de requerimientos</t>
+  </si>
+  <si>
+    <t>Buena elección de estrategia de recolección de requerimientos</t>
+  </si>
+  <si>
+    <t>Mala elección de estrategia de recolección de requerimientos</t>
+  </si>
+  <si>
+    <t>Seleccionar una estrategia de recolección de requerimientos que se adecue a la situación real de la empresa, de los process y de los usuarios finales</t>
+  </si>
+  <si>
+    <t>Correcta priorización y jerarquización de los requerimientos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t>Priorización y jerarquización inadecuada de los requerimientos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t>Priorizar y jerarquizar los requerimientos funcionales y no funcionales bajo un criterio basado en los alcances del proyecto</t>
+  </si>
+  <si>
+    <t>Correcta decripción y capacitación de uso de la herramienta de Gestión de Configuración</t>
+  </si>
+  <si>
+    <t>Descripción y capacitación de uso incompleta de la herramienta de Gestión de Configuración</t>
+  </si>
+  <si>
+    <t>Describir la herramienta de Gestión de Configuración y desarrollar un manual breve y consiso de su uso y sus principales funciones</t>
+  </si>
+  <si>
+    <t>Minuta</t>
+  </si>
+  <si>
+    <t>Seguir manteniendo la linea base</t>
+  </si>
+  <si>
+    <t>Buena definición de la linea base</t>
+  </si>
+  <si>
+    <t>Mejorar la linea base [noombre]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1124,10 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1200,10 +1333,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1311,6 +1445,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1341,36 +1502,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1734,21 +1884,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1818,10 +1968,10 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
@@ -1864,10 +2014,10 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
@@ -1910,12 +2060,12 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -2097,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,41 +2268,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="34"/>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="45"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -2189,7 +2339,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -2224,7 +2374,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="37" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -2259,7 +2409,7 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -2294,7 +2444,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -2329,7 +2479,7 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -2364,7 +2514,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -2399,7 +2549,7 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -2434,7 +2584,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -2469,7 +2619,7 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -2504,7 +2654,7 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -2539,7 +2689,7 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="38" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -2555,7 +2705,7 @@
         <v>104</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="42" t="s">
         <v>105</v>
       </c>
       <c r="H15" s="32" t="s">
@@ -2574,7 +2724,7 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="38" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="32" t="s">
@@ -2590,13 +2740,13 @@
         <v>108</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="44" t="s">
         <v>111</v>
       </c>
       <c r="J16" s="8"/>
@@ -2609,7 +2759,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -2625,13 +2775,13 @@
         <v>112</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="44" t="s">
         <v>115</v>
       </c>
       <c r="J17" s="8"/>
@@ -2644,7 +2794,7 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="38" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="32" t="s">
@@ -2660,13 +2810,13 @@
         <v>116</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="43" t="s">
         <v>119</v>
       </c>
       <c r="J18" s="8"/>
@@ -2679,7 +2829,7 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -2695,13 +2845,13 @@
         <v>120</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="44" t="s">
         <v>123</v>
       </c>
       <c r="J19" s="8"/>
@@ -2714,7 +2864,7 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="32" t="s">
@@ -2730,13 +2880,13 @@
         <v>124</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="44" t="s">
         <v>127</v>
       </c>
       <c r="J20" s="8"/>
@@ -2749,7 +2899,7 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="38" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="32" t="s">
@@ -2765,13 +2915,13 @@
         <v>128</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="44" t="s">
         <v>131</v>
       </c>
       <c r="J21" s="8"/>
@@ -2784,7 +2934,7 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -2800,13 +2950,13 @@
         <v>132</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="44" t="s">
         <v>135</v>
       </c>
       <c r="J22" s="8"/>
@@ -2819,7 +2969,7 @@
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="38" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -2835,13 +2985,13 @@
         <v>136</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="44" t="s">
         <v>139</v>
       </c>
       <c r="J23" s="8"/>
@@ -2853,8 +3003,8 @@
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -2863,21 +3013,33 @@
       <c r="C24" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="6"/>
+      <c r="D24" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24" s="58"/>
+      <c r="K24" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L24" s="32" t="s">
         <v>213</v>
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -2886,21 +3048,33 @@
       <c r="C25" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="6"/>
+      <c r="D25" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="K25" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L25" s="32" t="s">
         <v>213</v>
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="32" t="s">
@@ -2909,21 +3083,33 @@
       <c r="C26" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="6"/>
+      <c r="D26" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" s="58"/>
+      <c r="K26" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L26" s="32" t="s">
         <v>213</v>
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -2932,21 +3118,33 @@
       <c r="C27" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="6"/>
+      <c r="D27" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" s="58"/>
+      <c r="K27" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L27" s="32" t="s">
         <v>213</v>
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="32" t="s">
@@ -2955,21 +3153,33 @@
       <c r="C28" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="6"/>
+      <c r="D28" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="58"/>
+      <c r="K28" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L28" s="32" t="s">
         <v>213</v>
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -2978,21 +3188,33 @@
       <c r="C29" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="6"/>
+      <c r="D29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" s="58"/>
+      <c r="K29" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L29" s="32" t="s">
         <v>213</v>
       </c>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="32" t="s">
@@ -3001,21 +3223,33 @@
       <c r="C30" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="6"/>
+      <c r="D30" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" s="58"/>
+      <c r="K30" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L30" s="32" t="s">
         <v>213</v>
       </c>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="32" t="s">
@@ -3024,21 +3258,33 @@
       <c r="C31" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="6"/>
+      <c r="D31" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" s="58"/>
+      <c r="K31" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L31" s="32" t="s">
         <v>213</v>
       </c>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="32" t="s">
@@ -3047,12 +3293,32 @@
       <c r="C32" s="32" t="s">
         <v>189</v>
       </c>
+      <c r="D32" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" s="58"/>
+      <c r="K32" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L32" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
         <v>167</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -3061,12 +3327,32 @@
       <c r="C33" s="32" t="s">
         <v>190</v>
       </c>
+      <c r="D33" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" s="58"/>
+      <c r="K33" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L33" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>168</v>
       </c>
       <c r="B34" s="32" t="s">
@@ -3075,12 +3361,32 @@
       <c r="C34" s="32" t="s">
         <v>191</v>
       </c>
+      <c r="D34" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" s="58"/>
+      <c r="K34" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L34" s="32" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="40" t="s">
         <v>169</v>
       </c>
       <c r="B35" s="32" t="s">
@@ -3094,7 +3400,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="40" t="s">
         <v>170</v>
       </c>
       <c r="B36" s="32" t="s">
@@ -3108,7 +3414,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="40" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="32" t="s">
@@ -3122,7 +3428,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="40" t="s">
         <v>172</v>
       </c>
       <c r="B38" s="32" t="s">
@@ -3136,7 +3442,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="40" t="s">
         <v>173</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -3150,7 +3456,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="40" t="s">
         <v>174</v>
       </c>
       <c r="B40" s="32" t="s">
@@ -3164,7 +3470,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="40" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="32" t="s">
@@ -3178,7 +3484,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="40" t="s">
         <v>176</v>
       </c>
       <c r="B42" s="32" t="s">
@@ -3192,7 +3498,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="40" t="s">
         <v>177</v>
       </c>
       <c r="B43" s="32" t="s">
@@ -3206,7 +3512,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="40" t="s">
         <v>178</v>
       </c>
       <c r="B44" s="32" t="s">
@@ -3220,7 +3526,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="41" t="s">
         <v>179</v>
       </c>
       <c r="B45" s="32" t="s">
@@ -3234,7 +3540,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="41" t="s">
         <v>180</v>
       </c>
       <c r="B46" s="32" t="s">
@@ -3248,7 +3554,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="41" t="s">
         <v>181</v>
       </c>
       <c r="B47" s="32" t="s">
@@ -3262,7 +3568,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="41" t="s">
         <v>182</v>
       </c>
       <c r="B48" s="32" t="s">
@@ -3276,7 +3582,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="41" t="s">
         <v>183</v>
       </c>
       <c r="B49" s="32" t="s">
@@ -3290,7 +3596,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="41" t="s">
         <v>184</v>
       </c>
       <c r="B50" s="32" t="s">
@@ -3304,7 +3610,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="41" t="s">
         <v>185</v>
       </c>
       <c r="B51" s="32" t="s">
@@ -3315,7 +3621,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="41" t="s">
         <v>186</v>
       </c>
       <c r="B52" s="32" t="s">
@@ -3326,7 +3632,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="41" t="s">
         <v>187</v>
       </c>
       <c r="B53" s="32" t="s">
@@ -3337,7 +3643,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="41" t="s">
         <v>188</v>
       </c>
       <c r="B54" s="32" t="s">

--- a/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-Lecciones-Aprendidas.xlsx
+++ b/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-Lecciones-Aprendidas.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="327">
   <si>
     <t>PP</t>
   </si>
@@ -1054,13 +1054,223 @@
   </si>
   <si>
     <t>Mejorar la linea base [noombre]</t>
+  </si>
+  <si>
+    <t>Defincion concreta de las funcionalidades del proyecto</t>
+  </si>
+  <si>
+    <t>Expectacivas poco realistas de la funcionalidad del proyecto</t>
+  </si>
+  <si>
+    <t>Definir la funcionalidad de cada uno de los modulos desde el incio del proyecto</t>
+  </si>
+  <si>
+    <t>Selección del equipo de desarrollo de acuerdo a las capacidades</t>
+  </si>
+  <si>
+    <t>Equipo de desarrollo poco preparado</t>
+  </si>
+  <si>
+    <t>Seleccionar al personal mejor capacitado para el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codificacion </t>
+  </si>
+  <si>
+    <t>Estructurar el codigo de acuerdo a las funciones y modulos</t>
+  </si>
+  <si>
+    <t>No estructurar el código en módulos y funciones</t>
+  </si>
+  <si>
+    <t>Definir la estructura desde un inicio en el mapa de navegacion del proyecto</t>
+  </si>
+  <si>
+    <t>Planeacion</t>
+  </si>
+  <si>
+    <t>Cambios en las especificaciones del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecer una acuerdos entre el cliente y el equipo de desarrollo </t>
+  </si>
+  <si>
+    <t>Lograr una planificacion adecuada para cumplir en tiempo y forma las actividades planeadas</t>
+  </si>
+  <si>
+    <t>Mala planificacion de en las fechas</t>
+  </si>
+  <si>
+    <t>Verificar que el tiempo de holgura sea determinado de acuerdo a la prioridad de la actividad</t>
+  </si>
+  <si>
+    <t>Modificacion de la plantilla del SRS</t>
+  </si>
+  <si>
+    <t>controlar adecueadamene las solicitudes de cambio</t>
+  </si>
+  <si>
+    <t>Seguir un estandar de programacion</t>
+  </si>
+  <si>
+    <t>No seguir el estandar establecido por el paradigma de la programacion orientada a objetos</t>
+  </si>
+  <si>
+    <t>Definir la nomenclatura a utilizar en el codigo fuente</t>
+  </si>
+  <si>
+    <t>Manejar un buen ambiente de trabajo entre los miembros del equipo de desarrollo</t>
+  </si>
+  <si>
+    <t>Incorrecto manejo de los conflictos internos en el equipo de desarrollo</t>
+  </si>
+  <si>
+    <t>Evitar conflictos interpersonales durante el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>El cliente debe de integrarse en las fases en las que sea necesaria infomacion del sistema</t>
+  </si>
+  <si>
+    <t>Implicacion insuficiente del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar constantes reuniones con el cliente para entrega de avances </t>
+  </si>
+  <si>
+    <t>Contratar personal comprometido con el proyecto</t>
+  </si>
+  <si>
+    <t>Bajo compromiso del equipo de trabajo</t>
+  </si>
+  <si>
+    <t>Realizar contratacion de personal que se involucre en los procesos del proyecto</t>
+  </si>
+  <si>
+    <t>Basa de datos de riesgos</t>
+  </si>
+  <si>
+    <t>Dar seguimiento a todos los riesgos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de comunicación entre los miembros del esquipo. </t>
+  </si>
+  <si>
+    <t>Dedicarle tiempo a la revisión de los riesgos para conocerlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herramienta de control de riesgos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir correctamente las fechas. </t>
+  </si>
+  <si>
+    <t>Falta de atención de acuerdo a las flechas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedicarle tiempo a la revisión de los de fechas. </t>
+  </si>
+  <si>
+    <t>Plan de contingencia.</t>
+  </si>
+  <si>
+    <t>Definir los recursos necesarios para implementar el plan de contingencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se tienen definidos los recursos. </t>
+  </si>
+  <si>
+    <t>Calcular los recursos de cada riesgo.</t>
+  </si>
+  <si>
+    <t>Definir correctamente los recursos de los riesgos en el regristro.</t>
+  </si>
+  <si>
+    <t>No se definen correctamente los recursos de los riegos en el registro.</t>
+  </si>
+  <si>
+    <t>Evaluar correctamento los recursos de los riesgos en el registro.</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>Definir las actividades correctas en cada fase o etapa.</t>
+  </si>
+  <si>
+    <t>No se definen correctamente las actividades desde un principio.</t>
+  </si>
+  <si>
+    <t>Dedicar tiempo a la asignación de actividades a las fases o etapas.</t>
+  </si>
+  <si>
+    <t>Matriz de comunicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignar involucrados, roles y la forma en que se darán los entregables. </t>
+  </si>
+  <si>
+    <t>No definir la forma en que se darán los entregables al cliente.</t>
+  </si>
+  <si>
+    <t>Definir como se darán al cliente los entregables.</t>
+  </si>
+  <si>
+    <t>Matriz de responsabilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignar responsabilidades a cada miembro del equipo. </t>
+  </si>
+  <si>
+    <t>No asignar bien las actividades y sobrecargar a otros roles con trabajo.</t>
+  </si>
+  <si>
+    <t>Dedicar tiempo a la asignacion de responsabilidades.</t>
+  </si>
+  <si>
+    <t>PPQA</t>
+  </si>
+  <si>
+    <t>Lecciones aprendidas.</t>
+  </si>
+  <si>
+    <t>Describir cada una de las lecciones aprendidas durante el desarrollo del proyecto.</t>
+  </si>
+  <si>
+    <t>No documentar las lecciones aprendidas conforme surgian.</t>
+  </si>
+  <si>
+    <t>Documentar las lecciones aprendidadas que van surgiendo.</t>
+  </si>
+  <si>
+    <t>Criterio de revisión de procesos y productos.</t>
+  </si>
+  <si>
+    <t>Dar el criterio y descripción de cada proceso y/o producto.</t>
+  </si>
+  <si>
+    <t>No dar el criterio correcto de acuerdo al proceso.</t>
+  </si>
+  <si>
+    <t>Dedicar tiempo y revisar cada proceso y producto, además de dar su descripción correspondiente.</t>
+  </si>
+  <si>
+    <t>Criterios de selección de productos.</t>
+  </si>
+  <si>
+    <t>Revisar los documentos que se van a entregar al cliente y el aréa en el que se encuentran.</t>
+  </si>
+  <si>
+    <t>No revisar los entregables con tiempo.</t>
+  </si>
+  <si>
+    <t>Dar tiempo para revisar cada uno de los entregables.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,8 +1339,14 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,36 +1356,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,7 +1523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,21 +1631,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1472,6 +1643,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1502,19 +1694,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1884,21 +2067,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1968,10 +2151,10 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
@@ -2014,10 +2197,10 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
@@ -2060,12 +2243,12 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -2247,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,41 +2451,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="34"/>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="54"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -2339,7 +2522,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="46" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -2374,7 +2557,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="46" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -2409,7 +2592,7 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -2444,7 +2627,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -2479,7 +2662,7 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -2514,7 +2697,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -2549,7 +2732,7 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -2584,7 +2767,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -2619,7 +2802,7 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="46" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -2654,7 +2837,7 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -2689,7 +2872,7 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -2705,7 +2888,7 @@
         <v>104</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="37" t="s">
         <v>105</v>
       </c>
       <c r="H15" s="32" t="s">
@@ -2724,7 +2907,7 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="47" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="32" t="s">
@@ -2740,13 +2923,13 @@
         <v>108</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="39" t="s">
         <v>111</v>
       </c>
       <c r="J16" s="8"/>
@@ -2759,7 +2942,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -2775,13 +2958,13 @@
         <v>112</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="39" t="s">
         <v>115</v>
       </c>
       <c r="J17" s="8"/>
@@ -2794,7 +2977,7 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="32" t="s">
@@ -2810,13 +2993,13 @@
         <v>116</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="38" t="s">
         <v>119</v>
       </c>
       <c r="J18" s="8"/>
@@ -2829,7 +3012,7 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -2845,13 +3028,13 @@
         <v>120</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="39" t="s">
         <v>123</v>
       </c>
       <c r="J19" s="8"/>
@@ -2864,7 +3047,7 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="32" t="s">
@@ -2880,13 +3063,13 @@
         <v>124</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="39" t="s">
         <v>127</v>
       </c>
       <c r="J20" s="8"/>
@@ -2899,7 +3082,7 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="32" t="s">
@@ -2915,13 +3098,13 @@
         <v>128</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="39" t="s">
         <v>131</v>
       </c>
       <c r="J21" s="8"/>
@@ -2934,7 +3117,7 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -2950,13 +3133,13 @@
         <v>132</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="39" t="s">
         <v>135</v>
       </c>
       <c r="J22" s="8"/>
@@ -2969,7 +3152,7 @@
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -2985,13 +3168,13 @@
         <v>136</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="39" t="s">
         <v>139</v>
       </c>
       <c r="J23" s="8"/>
@@ -3004,7 +3187,7 @@
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -3013,23 +3196,23 @@
       <c r="C24" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="56" t="s">
+      <c r="F24" s="43"/>
+      <c r="G24" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="J24" s="58"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="32" t="s">
         <v>212</v>
       </c>
@@ -3039,7 +3222,7 @@
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -3048,23 +3231,23 @@
       <c r="C25" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="J25" s="58"/>
+      <c r="J25" s="43"/>
       <c r="K25" s="32" t="s">
         <v>212</v>
       </c>
@@ -3074,7 +3257,7 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="32" t="s">
@@ -3083,23 +3266,23 @@
       <c r="C26" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="J26" s="58"/>
+      <c r="J26" s="43"/>
       <c r="K26" s="32" t="s">
         <v>212</v>
       </c>
@@ -3109,7 +3292,7 @@
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -3118,23 +3301,23 @@
       <c r="C27" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="J27" s="58"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="32" t="s">
         <v>212</v>
       </c>
@@ -3144,7 +3327,7 @@
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="32" t="s">
@@ -3153,23 +3336,23 @@
       <c r="C28" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59" t="s">
+      <c r="F28" s="43"/>
+      <c r="G28" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="J28" s="58"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="32" t="s">
         <v>212</v>
       </c>
@@ -3179,7 +3362,7 @@
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -3188,23 +3371,23 @@
       <c r="C29" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59" t="s">
+      <c r="F29" s="43"/>
+      <c r="G29" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="J29" s="58"/>
+      <c r="J29" s="43"/>
       <c r="K29" s="32" t="s">
         <v>212</v>
       </c>
@@ -3214,7 +3397,7 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="32" t="s">
@@ -3223,23 +3406,23 @@
       <c r="C30" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59" t="s">
+      <c r="F30" s="43"/>
+      <c r="G30" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="J30" s="58"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="32" t="s">
         <v>212</v>
       </c>
@@ -3249,7 +3432,7 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="32" t="s">
@@ -3258,23 +3441,23 @@
       <c r="C31" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="43"/>
+      <c r="G31" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="J31" s="58"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="32" t="s">
         <v>212</v>
       </c>
@@ -3284,7 +3467,7 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="47" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="32" t="s">
@@ -3293,23 +3476,23 @@
       <c r="C32" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59" t="s">
+      <c r="F32" s="43"/>
+      <c r="G32" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="J32" s="58"/>
+      <c r="J32" s="43"/>
       <c r="K32" s="32" t="s">
         <v>212</v>
       </c>
@@ -3318,7 +3501,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="47" t="s">
         <v>167</v>
       </c>
       <c r="B33" s="32" t="s">
@@ -3327,23 +3510,23 @@
       <c r="C33" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59" t="s">
+      <c r="F33" s="43"/>
+      <c r="G33" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="J33" s="58"/>
+      <c r="J33" s="43"/>
       <c r="K33" s="32" t="s">
         <v>212</v>
       </c>
@@ -3352,7 +3535,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="47" t="s">
         <v>168</v>
       </c>
       <c r="B34" s="32" t="s">
@@ -3361,23 +3544,23 @@
       <c r="C34" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59" t="s">
+      <c r="F34" s="43"/>
+      <c r="G34" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="J34" s="58"/>
+      <c r="J34" s="43"/>
       <c r="K34" s="32" t="s">
         <v>212</v>
       </c>
@@ -3385,8 +3568,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>169</v>
       </c>
       <c r="B35" s="32" t="s">
@@ -3395,12 +3578,31 @@
       <c r="C35" s="32" t="s">
         <v>192</v>
       </c>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L35" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="47" t="s">
         <v>170</v>
       </c>
       <c r="B36" s="32" t="s">
@@ -3409,12 +3611,31 @@
       <c r="C36" s="32" t="s">
         <v>193</v>
       </c>
+      <c r="D36" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L36" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="47" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="32" t="s">
@@ -3423,12 +3644,31 @@
       <c r="C37" s="32" t="s">
         <v>194</v>
       </c>
+      <c r="D37" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L37" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="47" t="s">
         <v>172</v>
       </c>
       <c r="B38" s="32" t="s">
@@ -3437,12 +3677,29 @@
       <c r="C38" s="32" t="s">
         <v>195</v>
       </c>
+      <c r="D38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L38" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
         <v>173</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -3451,12 +3708,31 @@
       <c r="C39" s="32" t="s">
         <v>196</v>
       </c>
+      <c r="D39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L39" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
         <v>174</v>
       </c>
       <c r="B40" s="32" t="s">
@@ -3465,12 +3741,29 @@
       <c r="C40" s="32" t="s">
         <v>197</v>
       </c>
+      <c r="D40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L40" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="32" t="s">
@@ -3479,12 +3772,31 @@
       <c r="C41" s="32" t="s">
         <v>198</v>
       </c>
+      <c r="D41" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L41" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
         <v>176</v>
       </c>
       <c r="B42" s="32" t="s">
@@ -3493,12 +3805,31 @@
       <c r="C42" s="32" t="s">
         <v>199</v>
       </c>
+      <c r="D42" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L42" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
         <v>177</v>
       </c>
       <c r="B43" s="32" t="s">
@@ -3507,12 +3838,31 @@
       <c r="C43" s="32" t="s">
         <v>200</v>
       </c>
+      <c r="D43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L43" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
         <v>178</v>
       </c>
       <c r="B44" s="32" t="s">
@@ -3521,12 +3871,31 @@
       <c r="C44" s="32" t="s">
         <v>201</v>
       </c>
+      <c r="D44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L44" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
         <v>179</v>
       </c>
       <c r="B45" s="32" t="s">
@@ -3535,12 +3904,31 @@
       <c r="C45" s="32" t="s">
         <v>202</v>
       </c>
+      <c r="D45" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45" s="59"/>
+      <c r="G45" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="H45" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="I45" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L45" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
         <v>180</v>
       </c>
       <c r="B46" s="32" t="s">
@@ -3549,12 +3937,31 @@
       <c r="C46" s="32" t="s">
         <v>203</v>
       </c>
+      <c r="D46" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F46" s="59"/>
+      <c r="G46" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L46" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
         <v>181</v>
       </c>
       <c r="B47" s="32" t="s">
@@ -3563,12 +3970,31 @@
       <c r="C47" s="32" t="s">
         <v>204</v>
       </c>
+      <c r="D47" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="G47" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="I47" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L47" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
         <v>182</v>
       </c>
       <c r="B48" s="32" t="s">
@@ -3577,12 +4003,31 @@
       <c r="C48" s="32" t="s">
         <v>205</v>
       </c>
+      <c r="D48" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="K48" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L48" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
         <v>183</v>
       </c>
       <c r="B49" s="32" t="s">
@@ -3591,12 +4036,31 @@
       <c r="C49" s="32" t="s">
         <v>206</v>
       </c>
+      <c r="D49" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="K49" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L49" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="47" t="s">
         <v>184</v>
       </c>
       <c r="B50" s="32" t="s">
@@ -3605,12 +4069,31 @@
       <c r="C50" s="32" t="s">
         <v>207</v>
       </c>
+      <c r="D50" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="I50" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="L50" s="32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="47" t="s">
         <v>185</v>
       </c>
       <c r="B51" s="32" t="s">
@@ -3619,9 +4102,31 @@
       <c r="C51" s="32" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="D51" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="K51" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L51" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>186</v>
       </c>
       <c r="B52" s="32" t="s">
@@ -3630,9 +4135,31 @@
       <c r="C52" s="32" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="D52" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="K52" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L52" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B53" s="32" t="s">
@@ -3641,9 +4168,31 @@
       <c r="C53" s="32" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+      <c r="D53" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="I53" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="K53" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L53" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
         <v>188</v>
       </c>
       <c r="B54" s="32" t="s">
@@ -3651,6 +4200,28 @@
       </c>
       <c r="C54" s="32" t="s">
         <v>211</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="H54" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="I54" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="K54" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L54" s="32" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3666,6 +4237,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>